--- a/data/input/absenteeism_data_6.xlsx
+++ b/data/input/absenteeism_data_6.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17323</v>
+        <v>98946</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caroline Duarte</t>
+          <t>Raquel da Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>5512.26</v>
+        <v>12437.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75992</v>
+        <v>67893</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Julia Ramos</t>
+          <t>Benício Pinto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,245 +523,245 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>8254.76</v>
+        <v>12398.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59561</v>
+        <v>40722</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daniela Costela</t>
+          <t>Nathan Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>7857.25</v>
+        <v>2997.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59227</v>
+        <v>93390</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Theo Campos</t>
+          <t>Bianca Pinto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>8947.030000000001</v>
+        <v>7687.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20819</v>
+        <v>75769</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rebeca Rocha</t>
+          <t>Dra. Elisa Campos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>5142.82</v>
+        <v>11026.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88486</v>
+        <v>10787</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Lucas Rodrigues</t>
+          <t>Luiz Gustavo Gonçalves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>3919.85</v>
+        <v>7837.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98138</v>
+        <v>48662</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Clara da Luz</t>
+          <t>Júlia da Luz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>5317.31</v>
+        <v>3847.54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95370</v>
+        <v>85395</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Alana Costa</t>
+          <t>Ana Júlia Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>3713.98</v>
+        <v>12272.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64711</v>
+        <v>24470</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Antônio da Luz</t>
+          <t>Elisa Araújo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>7965.83</v>
+        <v>4022.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>92789</v>
+        <v>86018</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bianca Gomes</t>
+          <t>Anthony da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45097</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>11717.86</v>
+        <v>2538.81</v>
       </c>
     </row>
   </sheetData>
